--- a/data/n2v/tables/model-1200-1325-20230828-59.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-59.xlsx
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
